--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Gabura/Gabura_input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Gabura/Gabura_input.xlsx
@@ -657,7 +657,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>11.956</v>
+        <v>13.956</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="D5">
         <f>C4-C11</f>
-        <v>16.875999999999998</v>
+        <v>18.875999999999998</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -949,7 +949,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>17.87</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
